--- a/Metadata_train.xlsx
+++ b/Metadata_train.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Matos\Documents\Educação\U.GENT\First Seizure Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidade\4_Ano_2_Semestre_ERASMUS\ugent-FirstSeizure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D0B2F61-868F-4472-A5DF-9AB228CF62F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C124D525-E17A-48E6-A8C2-EC6442F02554}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5390" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="678">
   <si>
     <t>Filename</t>
   </si>
@@ -1869,9 +1868,6 @@
   </si>
   <si>
     <t>151222C-A</t>
-  </si>
-  <si>
-    <t>160916C-C</t>
   </si>
   <si>
     <t>150610C-A</t>
@@ -2064,7 +2060,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2077,6 +2073,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2114,11 +2118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2421,30 +2426,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N635"/>
+  <dimension ref="A1:N634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="J590" sqref="J590"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2523,7 +2528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2725,7 +2730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2763,7 +2768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2798,7 +2803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -2839,7 +2844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -2880,7 +2885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -2924,7 +2929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -2962,7 +2967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -2997,7 +3002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -3035,7 +3040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -3076,7 +3081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -3117,12 +3122,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C18">
         <v>67</v>
@@ -3155,12 +3160,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -3196,7 +3201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>26</v>
       </c>
@@ -3240,7 +3245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>27</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>28</v>
       </c>
@@ -3322,7 +3327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>29</v>
       </c>
@@ -3363,7 +3368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>30</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -3442,12 +3447,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -3483,7 +3488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>35</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>36</v>
       </c>
@@ -3565,7 +3570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>37</v>
       </c>
@@ -3606,7 +3611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>39</v>
       </c>
@@ -3650,7 +3655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40</v>
       </c>
@@ -3694,7 +3699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>41</v>
       </c>
@@ -3735,7 +3740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>42</v>
       </c>
@@ -3773,7 +3778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45</v>
       </c>
@@ -3811,7 +3816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>46</v>
       </c>
@@ -3855,7 +3860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>49</v>
       </c>
@@ -3899,7 +3904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>51</v>
       </c>
@@ -3943,7 +3948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>53</v>
       </c>
@@ -3981,7 +3986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>54</v>
       </c>
@@ -4019,7 +4024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>55</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>58</v>
       </c>
@@ -4101,7 +4106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>59</v>
       </c>
@@ -4142,7 +4147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>61</v>
       </c>
@@ -4186,12 +4191,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C44">
         <v>35</v>
@@ -4230,12 +4235,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C45">
         <v>48</v>
@@ -4271,7 +4276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>68</v>
       </c>
@@ -4309,7 +4314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>69</v>
       </c>
@@ -4347,7 +4352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>70</v>
       </c>
@@ -4388,7 +4393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>71</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>72</v>
       </c>
@@ -4467,7 +4472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>73</v>
       </c>
@@ -4505,12 +4510,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C52">
         <v>58</v>
@@ -4546,7 +4551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>76</v>
       </c>
@@ -4587,7 +4592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>79</v>
       </c>
@@ -4631,7 +4636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>80</v>
       </c>
@@ -4669,7 +4674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>82</v>
       </c>
@@ -4710,7 +4715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>83</v>
       </c>
@@ -4751,7 +4756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>84</v>
       </c>
@@ -4792,7 +4797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>85</v>
       </c>
@@ -4827,7 +4832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>86</v>
       </c>
@@ -4868,7 +4873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>87</v>
       </c>
@@ -4909,7 +4914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>88</v>
       </c>
@@ -4947,7 +4952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>89</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>90</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>91</v>
       </c>
@@ -5073,7 +5078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>93</v>
       </c>
@@ -5117,7 +5122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>94</v>
       </c>
@@ -5161,7 +5166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>95</v>
       </c>
@@ -5199,7 +5204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>97</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>98</v>
       </c>
@@ -5278,12 +5283,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C71">
         <v>87</v>
@@ -5319,7 +5324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>101</v>
       </c>
@@ -5363,7 +5368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>102</v>
       </c>
@@ -5407,7 +5412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>103</v>
       </c>
@@ -5448,7 +5453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>105</v>
       </c>
@@ -5492,12 +5497,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C76">
         <v>55</v>
@@ -5533,7 +5538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>108</v>
       </c>
@@ -5574,7 +5579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>109</v>
       </c>
@@ -5612,7 +5617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>110</v>
       </c>
@@ -5650,12 +5655,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C80">
         <v>76</v>
@@ -5688,7 +5693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>112</v>
       </c>
@@ -5732,7 +5737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>113</v>
       </c>
@@ -5776,7 +5781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>114</v>
       </c>
@@ -5817,7 +5822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>119</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>121</v>
       </c>
@@ -5899,7 +5904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>122</v>
       </c>
@@ -5943,7 +5948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>123</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>125</v>
       </c>
@@ -6025,12 +6030,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C89">
         <v>23</v>
@@ -6066,7 +6071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>127</v>
       </c>
@@ -6110,7 +6115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>128</v>
       </c>
@@ -6151,7 +6156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>131</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>132</v>
       </c>
@@ -6236,7 +6241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>133</v>
       </c>
@@ -6271,7 +6276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>134</v>
       </c>
@@ -6312,7 +6317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>137</v>
       </c>
@@ -6353,7 +6358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>138</v>
       </c>
@@ -6397,12 +6402,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C98">
         <v>61</v>
@@ -6432,7 +6437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>141</v>
       </c>
@@ -6473,7 +6478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>142</v>
       </c>
@@ -6517,7 +6522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>143</v>
       </c>
@@ -6561,7 +6566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>144</v>
       </c>
@@ -6599,7 +6604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>145</v>
       </c>
@@ -6631,7 +6636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>147</v>
       </c>
@@ -6669,7 +6674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>148</v>
       </c>
@@ -6704,7 +6709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>151</v>
       </c>
@@ -6739,12 +6744,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>152</v>
       </c>
       <c r="B107" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C107">
         <v>86</v>
@@ -6777,7 +6782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>154</v>
       </c>
@@ -6815,7 +6820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>155</v>
       </c>
@@ -6853,7 +6858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>156</v>
       </c>
@@ -6894,7 +6899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>158</v>
       </c>
@@ -6929,7 +6934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>162</v>
       </c>
@@ -6967,7 +6972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>163</v>
       </c>
@@ -7002,7 +7007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>164</v>
       </c>
@@ -7046,7 +7051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>165</v>
       </c>
@@ -7087,7 +7092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>169</v>
       </c>
@@ -7128,12 +7133,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>170</v>
       </c>
       <c r="B117" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C117">
         <v>87</v>
@@ -7163,7 +7168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>172</v>
       </c>
@@ -7198,12 +7203,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C119">
         <v>17</v>
@@ -7233,7 +7238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>174</v>
       </c>
@@ -7277,12 +7282,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>177</v>
       </c>
       <c r="B121" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C121">
         <v>22</v>
@@ -7312,7 +7317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>178</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>179</v>
       </c>
@@ -7388,7 +7393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>180</v>
       </c>
@@ -7426,7 +7431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>182</v>
       </c>
@@ -7464,7 +7469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>184</v>
       </c>
@@ -7499,12 +7504,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C127">
         <v>97</v>
@@ -7537,7 +7542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>186</v>
       </c>
@@ -7572,7 +7577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>190</v>
       </c>
@@ -7610,7 +7615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>191</v>
       </c>
@@ -7645,7 +7650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>192</v>
       </c>
@@ -7683,7 +7688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>193</v>
       </c>
@@ -7718,12 +7723,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C133">
         <v>26</v>
@@ -7756,7 +7761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>196</v>
       </c>
@@ -7788,7 +7793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>197</v>
       </c>
@@ -7823,12 +7828,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>199</v>
       </c>
       <c r="B136" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C136">
         <v>66</v>
@@ -7861,7 +7866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>204</v>
       </c>
@@ -7899,7 +7904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>205</v>
       </c>
@@ -7940,7 +7945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>206</v>
       </c>
@@ -7978,7 +7983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>207</v>
       </c>
@@ -8019,7 +8024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>208</v>
       </c>
@@ -8054,7 +8059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>209</v>
       </c>
@@ -8092,7 +8097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>210</v>
       </c>
@@ -8130,7 +8135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>212</v>
       </c>
@@ -8165,7 +8170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>213</v>
       </c>
@@ -8203,7 +8208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>215</v>
       </c>
@@ -8238,7 +8243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>216</v>
       </c>
@@ -8282,7 +8287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>217</v>
       </c>
@@ -8320,7 +8325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>219</v>
       </c>
@@ -8358,7 +8363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>220</v>
       </c>
@@ -8393,7 +8398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>221</v>
       </c>
@@ -8437,12 +8442,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>222</v>
       </c>
       <c r="B152" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C152">
         <v>26</v>
@@ -8478,12 +8483,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>224</v>
       </c>
       <c r="B153" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C153">
         <v>30</v>
@@ -8513,12 +8518,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>225</v>
       </c>
       <c r="B154" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C154">
         <v>19</v>
@@ -8554,7 +8559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>227</v>
       </c>
@@ -8589,7 +8594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>230</v>
       </c>
@@ -8630,7 +8635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>231</v>
       </c>
@@ -8668,7 +8673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>233</v>
       </c>
@@ -8706,7 +8711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>234</v>
       </c>
@@ -8741,7 +8746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>235</v>
       </c>
@@ -8776,7 +8781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>236</v>
       </c>
@@ -8820,7 +8825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>242</v>
       </c>
@@ -8855,12 +8860,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>243</v>
       </c>
       <c r="B163" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C163">
         <v>63</v>
@@ -8896,12 +8901,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>244</v>
       </c>
       <c r="B164" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C164">
         <v>42</v>
@@ -8937,7 +8942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>247</v>
       </c>
@@ -8981,7 +8986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>248</v>
       </c>
@@ -9019,7 +9024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>249</v>
       </c>
@@ -9057,7 +9062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>250</v>
       </c>
@@ -9098,7 +9103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>252</v>
       </c>
@@ -9139,7 +9144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>255</v>
       </c>
@@ -9174,7 +9179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>257</v>
       </c>
@@ -9209,7 +9214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>258</v>
       </c>
@@ -9247,7 +9252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>259</v>
       </c>
@@ -9282,7 +9287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>261</v>
       </c>
@@ -9326,7 +9331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>263</v>
       </c>
@@ -9364,7 +9369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>264</v>
       </c>
@@ -9402,7 +9407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>266</v>
       </c>
@@ -9434,7 +9439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>268</v>
       </c>
@@ -9478,7 +9483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>269</v>
       </c>
@@ -9519,7 +9524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>270</v>
       </c>
@@ -9554,7 +9559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>272</v>
       </c>
@@ -9592,7 +9597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>273</v>
       </c>
@@ -9636,7 +9641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>275</v>
       </c>
@@ -9671,7 +9676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>276</v>
       </c>
@@ -9712,7 +9717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>277</v>
       </c>
@@ -9756,7 +9761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>278</v>
       </c>
@@ -9800,7 +9805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>279</v>
       </c>
@@ -9844,7 +9849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>280</v>
       </c>
@@ -9885,7 +9890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>281</v>
       </c>
@@ -9923,7 +9928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>282</v>
       </c>
@@ -9961,7 +9966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>284</v>
       </c>
@@ -9996,7 +10001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>285</v>
       </c>
@@ -10031,7 +10036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>287</v>
       </c>
@@ -10066,7 +10071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>288</v>
       </c>
@@ -10101,7 +10106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>289</v>
       </c>
@@ -10139,7 +10144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>290</v>
       </c>
@@ -10180,7 +10185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>291</v>
       </c>
@@ -10215,7 +10220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>292</v>
       </c>
@@ -10250,7 +10255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>295</v>
       </c>
@@ -10294,7 +10299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>297</v>
       </c>
@@ -10326,7 +10331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>298</v>
       </c>
@@ -10364,7 +10369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>299</v>
       </c>
@@ -10402,7 +10407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>300</v>
       </c>
@@ -10443,12 +10448,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>302</v>
       </c>
       <c r="B204" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C204">
         <v>61</v>
@@ -10478,7 +10483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>303</v>
       </c>
@@ -10510,7 +10515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>304</v>
       </c>
@@ -10551,7 +10556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>305</v>
       </c>
@@ -10589,7 +10594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>306</v>
       </c>
@@ -10630,7 +10635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>307</v>
       </c>
@@ -10671,7 +10676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>308</v>
       </c>
@@ -10715,7 +10720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>309</v>
       </c>
@@ -10759,7 +10764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>310</v>
       </c>
@@ -10800,7 +10805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>311</v>
       </c>
@@ -10838,12 +10843,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>312</v>
       </c>
       <c r="B214" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C214">
         <v>50</v>
@@ -10876,7 +10881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>313</v>
       </c>
@@ -10914,7 +10919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>314</v>
       </c>
@@ -10955,7 +10960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>315</v>
       </c>
@@ -10999,7 +11004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>316</v>
       </c>
@@ -11037,7 +11042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>317</v>
       </c>
@@ -11078,7 +11083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>319</v>
       </c>
@@ -11113,7 +11118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>320</v>
       </c>
@@ -11154,7 +11159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>322</v>
       </c>
@@ -11189,7 +11194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>324</v>
       </c>
@@ -11227,7 +11232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>325</v>
       </c>
@@ -11271,7 +11276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>326</v>
       </c>
@@ -11315,7 +11320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>334</v>
       </c>
@@ -11359,7 +11364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>335</v>
       </c>
@@ -11403,7 +11408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>336</v>
       </c>
@@ -11444,7 +11449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>337</v>
       </c>
@@ -11485,7 +11490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>339</v>
       </c>
@@ -11523,7 +11528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>340</v>
       </c>
@@ -11561,7 +11566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>342</v>
       </c>
@@ -11599,7 +11604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>344</v>
       </c>
@@ -11631,7 +11636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>345</v>
       </c>
@@ -11666,7 +11671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>347</v>
       </c>
@@ -11698,7 +11703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>350</v>
       </c>
@@ -11736,7 +11741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>351</v>
       </c>
@@ -11771,7 +11776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>352</v>
       </c>
@@ -11806,7 +11811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>353</v>
       </c>
@@ -11838,7 +11843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>354</v>
       </c>
@@ -11867,7 +11872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>355</v>
       </c>
@@ -11899,7 +11904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>358</v>
       </c>
@@ -11931,12 +11936,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>359</v>
       </c>
       <c r="B243" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C243">
         <v>93</v>
@@ -11963,7 +11968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>360</v>
       </c>
@@ -11995,12 +12000,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>361</v>
       </c>
       <c r="B245" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C245">
         <v>21</v>
@@ -12030,12 +12035,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>362</v>
       </c>
       <c r="B246" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C246">
         <v>29</v>
@@ -12062,7 +12067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>363</v>
       </c>
@@ -12094,7 +12099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>364</v>
       </c>
@@ -12126,7 +12131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>366</v>
       </c>
@@ -12158,7 +12163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>367</v>
       </c>
@@ -12190,7 +12195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>368</v>
       </c>
@@ -12228,12 +12233,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>369</v>
       </c>
       <c r="B252" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C252">
         <v>28</v>
@@ -12263,7 +12268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>372</v>
       </c>
@@ -12298,7 +12303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>373</v>
       </c>
@@ -12330,7 +12335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>374</v>
       </c>
@@ -12362,7 +12367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>377</v>
       </c>
@@ -12397,7 +12402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>378</v>
       </c>
@@ -12432,7 +12437,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>379</v>
       </c>
@@ -12464,12 +12469,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>380</v>
       </c>
       <c r="B259" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C259">
         <v>69</v>
@@ -12499,7 +12504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>381</v>
       </c>
@@ -12534,7 +12539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>383</v>
       </c>
@@ -12572,7 +12577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>384</v>
       </c>
@@ -12607,7 +12612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>385</v>
       </c>
@@ -12642,7 +12647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>388</v>
       </c>
@@ -12677,7 +12682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>389</v>
       </c>
@@ -12718,7 +12723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>391</v>
       </c>
@@ -12753,7 +12758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>395</v>
       </c>
@@ -12785,7 +12790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>396</v>
       </c>
@@ -12820,7 +12825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>397</v>
       </c>
@@ -12855,7 +12860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>398</v>
       </c>
@@ -12890,7 +12895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>400</v>
       </c>
@@ -12925,7 +12930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>401</v>
       </c>
@@ -12960,7 +12965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>402</v>
       </c>
@@ -12998,7 +13003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>405</v>
       </c>
@@ -13030,7 +13035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>406</v>
       </c>
@@ -13071,12 +13076,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>407</v>
       </c>
       <c r="B276" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C276">
         <v>34</v>
@@ -13106,7 +13111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>410</v>
       </c>
@@ -13144,7 +13149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>411</v>
       </c>
@@ -13176,7 +13181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>412</v>
       </c>
@@ -13211,7 +13216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>413</v>
       </c>
@@ -13246,7 +13251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>414</v>
       </c>
@@ -13287,7 +13292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>415</v>
       </c>
@@ -13322,7 +13327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>416</v>
       </c>
@@ -13357,7 +13362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>417</v>
       </c>
@@ -13392,7 +13397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>418</v>
       </c>
@@ -13427,7 +13432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>419</v>
       </c>
@@ -13462,7 +13467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>420</v>
       </c>
@@ -13494,7 +13499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>421</v>
       </c>
@@ -13532,7 +13537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>423</v>
       </c>
@@ -13567,7 +13572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>424</v>
       </c>
@@ -13599,7 +13604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>427</v>
       </c>
@@ -13634,7 +13639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>428</v>
       </c>
@@ -13669,7 +13674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>429</v>
       </c>
@@ -13704,7 +13709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>430</v>
       </c>
@@ -13736,7 +13741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>431</v>
       </c>
@@ -13768,7 +13773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>433</v>
       </c>
@@ -13803,7 +13808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>435</v>
       </c>
@@ -13835,7 +13840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>437</v>
       </c>
@@ -13867,7 +13872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>438</v>
       </c>
@@ -13902,7 +13907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>440</v>
       </c>
@@ -13937,7 +13942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>441</v>
       </c>
@@ -13972,7 +13977,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>444</v>
       </c>
@@ -14004,7 +14009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>445</v>
       </c>
@@ -14039,7 +14044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>446</v>
       </c>
@@ -14071,7 +14076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>447</v>
       </c>
@@ -14106,7 +14111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>448</v>
       </c>
@@ -14144,7 +14149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>449</v>
       </c>
@@ -14182,12 +14187,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>450</v>
       </c>
       <c r="B308" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C308">
         <v>86</v>
@@ -14217,7 +14222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>451</v>
       </c>
@@ -14249,7 +14254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>453</v>
       </c>
@@ -14281,7 +14286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>454</v>
       </c>
@@ -14313,7 +14318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>457</v>
       </c>
@@ -14348,7 +14353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>458</v>
       </c>
@@ -14380,7 +14385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>459</v>
       </c>
@@ -14412,7 +14417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>460</v>
       </c>
@@ -14453,12 +14458,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>462</v>
       </c>
       <c r="B316" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C316">
         <v>71</v>
@@ -14485,7 +14490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>465</v>
       </c>
@@ -14517,7 +14522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>466</v>
       </c>
@@ -14549,7 +14554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>468</v>
       </c>
@@ -14587,7 +14592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>469</v>
       </c>
@@ -14625,7 +14630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>470</v>
       </c>
@@ -14660,7 +14665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>471</v>
       </c>
@@ -14692,7 +14697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>472</v>
       </c>
@@ -14727,7 +14732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>476</v>
       </c>
@@ -14759,7 +14764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>478</v>
       </c>
@@ -14791,7 +14796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>480</v>
       </c>
@@ -14829,7 +14834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>481</v>
       </c>
@@ -14861,7 +14866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>483</v>
       </c>
@@ -14893,12 +14898,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>486</v>
       </c>
       <c r="B329" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C329">
         <v>82</v>
@@ -14928,12 +14933,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>487</v>
       </c>
       <c r="B330" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C330">
         <v>74</v>
@@ -14960,7 +14965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>488</v>
       </c>
@@ -14992,7 +14997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>489</v>
       </c>
@@ -15027,7 +15032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>491</v>
       </c>
@@ -15062,7 +15067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>492</v>
       </c>
@@ -15100,7 +15105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>493</v>
       </c>
@@ -15132,7 +15137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>496</v>
       </c>
@@ -15167,7 +15172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>497</v>
       </c>
@@ -15205,7 +15210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>500</v>
       </c>
@@ -15243,7 +15248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>503</v>
       </c>
@@ -15278,7 +15283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>504</v>
       </c>
@@ -15313,7 +15318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>505</v>
       </c>
@@ -15348,7 +15353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>506</v>
       </c>
@@ -15383,7 +15388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>507</v>
       </c>
@@ -15418,12 +15423,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>508</v>
       </c>
       <c r="B344" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C344">
         <v>69</v>
@@ -15453,7 +15458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>509</v>
       </c>
@@ -15488,7 +15493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>510</v>
       </c>
@@ -15523,7 +15528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>511</v>
       </c>
@@ -15558,7 +15563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>515</v>
       </c>
@@ -15590,7 +15595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>517</v>
       </c>
@@ -15625,7 +15630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>519</v>
       </c>
@@ -15663,7 +15668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>521</v>
       </c>
@@ -15698,7 +15703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>522</v>
       </c>
@@ -15733,7 +15738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>523</v>
       </c>
@@ -15768,7 +15773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>524</v>
       </c>
@@ -15806,7 +15811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>526</v>
       </c>
@@ -15844,7 +15849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>527</v>
       </c>
@@ -15879,7 +15884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>529</v>
       </c>
@@ -15914,7 +15919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>532</v>
       </c>
@@ -15946,7 +15951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>533</v>
       </c>
@@ -15984,7 +15989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>535</v>
       </c>
@@ -16019,7 +16024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>536</v>
       </c>
@@ -16057,7 +16062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>537</v>
       </c>
@@ -16092,7 +16097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>538</v>
       </c>
@@ -16124,7 +16129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>539</v>
       </c>
@@ -16156,7 +16161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>541</v>
       </c>
@@ -16197,7 +16202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>542</v>
       </c>
@@ -16229,7 +16234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>543</v>
       </c>
@@ -16264,12 +16269,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>544</v>
       </c>
       <c r="B368" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C368">
         <v>76</v>
@@ -16299,7 +16304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>545</v>
       </c>
@@ -16334,7 +16339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>546</v>
       </c>
@@ -16375,7 +16380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>547</v>
       </c>
@@ -16413,7 +16418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>550</v>
       </c>
@@ -16451,7 +16456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>553</v>
       </c>
@@ -16486,7 +16491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>555</v>
       </c>
@@ -16527,7 +16532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>560</v>
       </c>
@@ -16562,7 +16567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>562</v>
       </c>
@@ -16597,7 +16602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>563</v>
       </c>
@@ -16629,7 +16634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>567</v>
       </c>
@@ -16670,12 +16675,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>569</v>
       </c>
       <c r="B379" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C379">
         <v>53</v>
@@ -16702,7 +16707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>571</v>
       </c>
@@ -16737,12 +16742,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>573</v>
       </c>
       <c r="B381" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C381">
         <v>28</v>
@@ -16775,7 +16780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>574</v>
       </c>
@@ -16810,7 +16815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>577</v>
       </c>
@@ -16842,7 +16847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>580</v>
       </c>
@@ -16877,7 +16882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>581</v>
       </c>
@@ -16912,7 +16917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>582</v>
       </c>
@@ -16944,7 +16949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>583</v>
       </c>
@@ -16976,7 +16981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>585</v>
       </c>
@@ -17008,7 +17013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>587</v>
       </c>
@@ -17043,7 +17048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>589</v>
       </c>
@@ -17078,12 +17083,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>590</v>
       </c>
       <c r="B391" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C391">
         <v>88</v>
@@ -17110,12 +17115,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>591</v>
       </c>
       <c r="B392" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C392">
         <v>21</v>
@@ -17139,7 +17144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>592</v>
       </c>
@@ -17171,7 +17176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>595</v>
       </c>
@@ -17203,7 +17208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>598</v>
       </c>
@@ -17235,7 +17240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>599</v>
       </c>
@@ -17270,7 +17275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>600</v>
       </c>
@@ -17308,7 +17313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>601</v>
       </c>
@@ -17346,7 +17351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>602</v>
       </c>
@@ -17387,7 +17392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>604</v>
       </c>
@@ -17419,7 +17424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>605</v>
       </c>
@@ -17454,7 +17459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>606</v>
       </c>
@@ -17486,7 +17491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>607</v>
       </c>
@@ -17518,7 +17523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>608</v>
       </c>
@@ -17553,7 +17558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>609</v>
       </c>
@@ -17588,7 +17593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>610</v>
       </c>
@@ -17626,7 +17631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>611</v>
       </c>
@@ -17664,7 +17669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>612</v>
       </c>
@@ -17696,7 +17701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>613</v>
       </c>
@@ -17731,7 +17736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>615</v>
       </c>
@@ -17772,7 +17777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>616</v>
       </c>
@@ -17810,7 +17815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>619</v>
       </c>
@@ -17845,7 +17850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>621</v>
       </c>
@@ -17877,7 +17882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>622</v>
       </c>
@@ -17915,7 +17920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>624</v>
       </c>
@@ -17950,7 +17955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>626</v>
       </c>
@@ -17979,7 +17984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>630</v>
       </c>
@@ -18014,7 +18019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>631</v>
       </c>
@@ -18049,7 +18054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>632</v>
       </c>
@@ -18090,7 +18095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>633</v>
       </c>
@@ -18125,7 +18130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>634</v>
       </c>
@@ -18166,7 +18171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>636</v>
       </c>
@@ -18198,7 +18203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>637</v>
       </c>
@@ -18230,7 +18235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>641</v>
       </c>
@@ -18259,7 +18264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>642</v>
       </c>
@@ -18294,7 +18299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>644</v>
       </c>
@@ -18329,7 +18334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>645</v>
       </c>
@@ -18367,7 +18372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>646</v>
       </c>
@@ -18405,7 +18410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>647</v>
       </c>
@@ -18440,7 +18445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>649</v>
       </c>
@@ -18472,7 +18477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>652</v>
       </c>
@@ -18510,7 +18515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>654</v>
       </c>
@@ -18545,7 +18550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>655</v>
       </c>
@@ -18577,7 +18582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>659</v>
       </c>
@@ -18618,7 +18623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>660</v>
       </c>
@@ -18653,7 +18658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>662</v>
       </c>
@@ -18685,7 +18690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>663</v>
       </c>
@@ -18720,12 +18725,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>664</v>
       </c>
       <c r="B438" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C438">
         <v>73</v>
@@ -18749,7 +18754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>666</v>
       </c>
@@ -18781,7 +18786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>667</v>
       </c>
@@ -18813,7 +18818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>669</v>
       </c>
@@ -18845,7 +18850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>670</v>
       </c>
@@ -18877,7 +18882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>671</v>
       </c>
@@ -18909,7 +18914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>672</v>
       </c>
@@ -18941,7 +18946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>677</v>
       </c>
@@ -18973,7 +18978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>680</v>
       </c>
@@ -19008,7 +19013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>683</v>
       </c>
@@ -19037,7 +19042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>684</v>
       </c>
@@ -19075,7 +19080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>685</v>
       </c>
@@ -19110,12 +19115,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>687</v>
       </c>
       <c r="B450" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C450">
         <v>21</v>
@@ -19142,7 +19147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>688</v>
       </c>
@@ -19180,7 +19185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>689</v>
       </c>
@@ -19218,7 +19223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>692</v>
       </c>
@@ -19253,7 +19258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>694</v>
       </c>
@@ -19285,7 +19290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>695</v>
       </c>
@@ -19320,7 +19325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>696</v>
       </c>
@@ -19352,7 +19357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>697</v>
       </c>
@@ -19390,7 +19395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>700</v>
       </c>
@@ -19422,7 +19427,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>701</v>
       </c>
@@ -19454,7 +19459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>702</v>
       </c>
@@ -19492,7 +19497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>703</v>
       </c>
@@ -19524,7 +19529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>704</v>
       </c>
@@ -19559,7 +19564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>705</v>
       </c>
@@ -19594,7 +19599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>706</v>
       </c>
@@ -19629,7 +19634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>707</v>
       </c>
@@ -19670,12 +19675,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>710</v>
       </c>
       <c r="B466" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C466">
         <v>45</v>
@@ -19705,7 +19710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>711</v>
       </c>
@@ -19746,7 +19751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>713</v>
       </c>
@@ -19787,7 +19792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>714</v>
       </c>
@@ -19819,7 +19824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>715</v>
       </c>
@@ -19851,7 +19856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>717</v>
       </c>
@@ -19883,7 +19888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>719</v>
       </c>
@@ -19918,7 +19923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>720</v>
       </c>
@@ -19950,7 +19955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>721</v>
       </c>
@@ -19982,7 +19987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>722</v>
       </c>
@@ -20014,7 +20019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>724</v>
       </c>
@@ -20046,7 +20051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>725</v>
       </c>
@@ -20081,7 +20086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>727</v>
       </c>
@@ -20119,7 +20124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>728</v>
       </c>
@@ -20151,7 +20156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>730</v>
       </c>
@@ -20189,7 +20194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>731</v>
       </c>
@@ -20227,12 +20232,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>732</v>
       </c>
       <c r="B482" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C482">
         <v>25</v>
@@ -20259,7 +20264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>733</v>
       </c>
@@ -20294,7 +20299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>734</v>
       </c>
@@ -20326,7 +20331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>735</v>
       </c>
@@ -20358,7 +20363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>736</v>
       </c>
@@ -20393,7 +20398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>740</v>
       </c>
@@ -20431,7 +20436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>741</v>
       </c>
@@ -20472,12 +20477,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>742</v>
       </c>
       <c r="B489" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C489">
         <v>69</v>
@@ -20504,7 +20509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>743</v>
       </c>
@@ -20542,7 +20547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>745</v>
       </c>
@@ -20583,7 +20588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>746</v>
       </c>
@@ -20615,7 +20620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>747</v>
       </c>
@@ -20647,7 +20652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>748</v>
       </c>
@@ -20682,7 +20687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>750</v>
       </c>
@@ -20714,7 +20719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>753</v>
       </c>
@@ -20746,7 +20751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>754</v>
       </c>
@@ -20784,7 +20789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>755</v>
       </c>
@@ -20819,12 +20824,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>756</v>
       </c>
       <c r="B499" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C499">
         <v>70</v>
@@ -20851,12 +20856,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>757</v>
       </c>
       <c r="B500" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C500">
         <v>55</v>
@@ -20889,12 +20894,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>758</v>
       </c>
       <c r="B501" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C501">
         <v>81</v>
@@ -20924,7 +20929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>761</v>
       </c>
@@ -20956,7 +20961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>763</v>
       </c>
@@ -20988,7 +20993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>764</v>
       </c>
@@ -21023,7 +21028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>768</v>
       </c>
@@ -21055,7 +21060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>773</v>
       </c>
@@ -21090,7 +21095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>775</v>
       </c>
@@ -21122,7 +21127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>779</v>
       </c>
@@ -21154,7 +21159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>781</v>
       </c>
@@ -21186,7 +21191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>782</v>
       </c>
@@ -21218,7 +21223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>783</v>
       </c>
@@ -21250,7 +21255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>785</v>
       </c>
@@ -21285,7 +21290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>786</v>
       </c>
@@ -21317,7 +21322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>788</v>
       </c>
@@ -21349,7 +21354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>789</v>
       </c>
@@ -21384,7 +21389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>792</v>
       </c>
@@ -21422,7 +21427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>793</v>
       </c>
@@ -21457,7 +21462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>794</v>
       </c>
@@ -21489,7 +21494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>795</v>
       </c>
@@ -21518,7 +21523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>796</v>
       </c>
@@ -21550,7 +21555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>797</v>
       </c>
@@ -21582,7 +21587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>798</v>
       </c>
@@ -21620,7 +21625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>799</v>
       </c>
@@ -21652,7 +21657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>800</v>
       </c>
@@ -21687,7 +21692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>801</v>
       </c>
@@ -21719,7 +21724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>802</v>
       </c>
@@ -21751,7 +21756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>803</v>
       </c>
@@ -21786,7 +21791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>804</v>
       </c>
@@ -21812,7 +21817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>806</v>
       </c>
@@ -21844,12 +21849,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>808</v>
       </c>
       <c r="B530" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C530">
         <v>35</v>
@@ -21885,7 +21890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>809</v>
       </c>
@@ -21917,7 +21922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>810</v>
       </c>
@@ -21946,7 +21951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>811</v>
       </c>
@@ -21978,7 +21983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>812</v>
       </c>
@@ -22007,12 +22012,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>814</v>
       </c>
       <c r="B535" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C535">
         <v>46</v>
@@ -22045,7 +22050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>817</v>
       </c>
@@ -22071,12 +22076,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>818</v>
       </c>
       <c r="B537" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C537">
         <v>28</v>
@@ -22103,7 +22108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>822</v>
       </c>
@@ -22141,7 +22146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>824</v>
       </c>
@@ -22173,12 +22178,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>825</v>
       </c>
       <c r="B540" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C540">
         <v>55</v>
@@ -22205,7 +22210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>829</v>
       </c>
@@ -22240,12 +22245,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>831</v>
       </c>
       <c r="B542" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C542">
         <v>54</v>
@@ -22266,12 +22271,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>834</v>
       </c>
       <c r="B543" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C543">
         <v>19</v>
@@ -22301,7 +22306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>836</v>
       </c>
@@ -22342,7 +22347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>838</v>
       </c>
@@ -22377,7 +22382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>840</v>
       </c>
@@ -22412,7 +22417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>841</v>
       </c>
@@ -22444,7 +22449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>843</v>
       </c>
@@ -22482,7 +22487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>846</v>
       </c>
@@ -22511,7 +22516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>848</v>
       </c>
@@ -22543,7 +22548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>851</v>
       </c>
@@ -22575,7 +22580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>853</v>
       </c>
@@ -22610,7 +22615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>855</v>
       </c>
@@ -22642,7 +22647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>857</v>
       </c>
@@ -22677,12 +22682,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>861</v>
       </c>
       <c r="B555" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C555">
         <v>19</v>
@@ -22709,7 +22714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>862</v>
       </c>
@@ -22741,7 +22746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>863</v>
       </c>
@@ -22782,7 +22787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>864</v>
       </c>
@@ -22814,7 +22819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>865</v>
       </c>
@@ -22849,7 +22854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>867</v>
       </c>
@@ -22881,7 +22886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>868</v>
       </c>
@@ -22913,12 +22918,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>869</v>
       </c>
       <c r="B562" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C562">
         <v>26</v>
@@ -22945,7 +22950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>870</v>
       </c>
@@ -22983,7 +22988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>871</v>
       </c>
@@ -23021,7 +23026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>873</v>
       </c>
@@ -23056,7 +23061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>877</v>
       </c>
@@ -23091,7 +23096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>879</v>
       </c>
@@ -23120,12 +23125,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>881</v>
       </c>
       <c r="B568" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C568">
         <v>70</v>
@@ -23152,7 +23157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>882</v>
       </c>
@@ -23187,7 +23192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>884</v>
       </c>
@@ -23222,7 +23227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>885</v>
       </c>
@@ -23254,7 +23259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>888</v>
       </c>
@@ -23286,7 +23291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>889</v>
       </c>
@@ -23318,7 +23323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>890</v>
       </c>
@@ -23350,12 +23355,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>891</v>
       </c>
       <c r="B575" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C575">
         <v>39</v>
@@ -23385,7 +23390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>893</v>
       </c>
@@ -23420,7 +23425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>895</v>
       </c>
@@ -23452,7 +23457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>896</v>
       </c>
@@ -23490,7 +23495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>897</v>
       </c>
@@ -23522,7 +23527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>898</v>
       </c>
@@ -23560,7 +23565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>899</v>
       </c>
@@ -23592,7 +23597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>901</v>
       </c>
@@ -23624,7 +23629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>902</v>
       </c>
@@ -23662,7 +23667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>905</v>
       </c>
@@ -23697,7 +23702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>907</v>
       </c>
@@ -23738,7 +23743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>909</v>
       </c>
@@ -23770,7 +23775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>910</v>
       </c>
@@ -23808,7 +23813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>911</v>
       </c>
@@ -23840,298 +23845,302 @@
         <v>18</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B589" t="s">
-        <v>616</v>
+        <v>126</v>
       </c>
       <c r="C589">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D589" t="s">
         <v>20</v>
       </c>
       <c r="E589" t="s">
+        <v>25</v>
+      </c>
+      <c r="F589" t="s">
+        <v>26</v>
+      </c>
+      <c r="G589" t="s">
+        <v>22</v>
+      </c>
+      <c r="H589" t="s">
+        <v>17</v>
+      </c>
+      <c r="I589">
+        <v>0</v>
+      </c>
+      <c r="M589" t="s">
+        <v>18</v>
+      </c>
+      <c r="N589" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="590" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A590" s="1">
+        <v>916</v>
+      </c>
+      <c r="B590" t="s">
+        <v>201</v>
+      </c>
+      <c r="C590">
+        <v>41</v>
+      </c>
+      <c r="D590" t="s">
+        <v>20</v>
+      </c>
+      <c r="E590" t="s">
+        <v>31</v>
+      </c>
+      <c r="G590" t="s">
+        <v>16</v>
+      </c>
+      <c r="H590" t="s">
+        <v>17</v>
+      </c>
+      <c r="J590" s="2"/>
+      <c r="K590" t="s">
+        <v>39</v>
+      </c>
+      <c r="L590" t="s">
+        <v>39</v>
+      </c>
+      <c r="M590" t="s">
+        <v>18</v>
+      </c>
+      <c r="N590" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A591" s="1">
+        <v>917</v>
+      </c>
+      <c r="B591" t="s">
+        <v>63</v>
+      </c>
+      <c r="C591">
+        <v>69</v>
+      </c>
+      <c r="D591" t="s">
+        <v>14</v>
+      </c>
+      <c r="E591" t="s">
+        <v>25</v>
+      </c>
+      <c r="F591" t="s">
+        <v>26</v>
+      </c>
+      <c r="G591" t="s">
+        <v>16</v>
+      </c>
+      <c r="H591" t="s">
+        <v>27</v>
+      </c>
+      <c r="I591">
+        <v>0</v>
+      </c>
+      <c r="L591" t="s">
+        <v>31</v>
+      </c>
+      <c r="M591" t="s">
+        <v>18</v>
+      </c>
+      <c r="N591" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="592" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A592" s="1">
+        <v>918</v>
+      </c>
+      <c r="B592" t="s">
+        <v>529</v>
+      </c>
+      <c r="C592">
+        <v>25</v>
+      </c>
+      <c r="D592" t="s">
+        <v>20</v>
+      </c>
+      <c r="E592" t="s">
         <v>78</v>
       </c>
-      <c r="G589" t="s">
-        <v>22</v>
-      </c>
-      <c r="H589" t="s">
-        <v>17</v>
-      </c>
-      <c r="I589">
-        <v>6</v>
-      </c>
-      <c r="M589" t="s">
-        <v>18</v>
-      </c>
-      <c r="N589" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A590" s="1">
-        <v>915</v>
-      </c>
-      <c r="B590" t="s">
-        <v>126</v>
-      </c>
-      <c r="C590">
-        <v>40</v>
-      </c>
-      <c r="D590" t="s">
-        <v>20</v>
-      </c>
-      <c r="E590" t="s">
-        <v>25</v>
-      </c>
-      <c r="F590" t="s">
-        <v>26</v>
-      </c>
-      <c r="G590" t="s">
-        <v>22</v>
-      </c>
-      <c r="H590" t="s">
-        <v>17</v>
-      </c>
-      <c r="I590">
+      <c r="G592" t="s">
+        <v>16</v>
+      </c>
+      <c r="H592" t="s">
+        <v>17</v>
+      </c>
+      <c r="I592">
+        <v>4</v>
+      </c>
+      <c r="M592" t="s">
+        <v>18</v>
+      </c>
+      <c r="N592" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A593" s="1">
+        <v>919</v>
+      </c>
+      <c r="B593" t="s">
+        <v>376</v>
+      </c>
+      <c r="C593">
+        <v>42</v>
+      </c>
+      <c r="D593" t="s">
+        <v>20</v>
+      </c>
+      <c r="E593" t="s">
+        <v>31</v>
+      </c>
+      <c r="G593" t="s">
+        <v>16</v>
+      </c>
+      <c r="H593" t="s">
+        <v>17</v>
+      </c>
+      <c r="I593">
+        <v>1</v>
+      </c>
+      <c r="M593" t="s">
+        <v>18</v>
+      </c>
+      <c r="N593" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="594" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A594" s="1">
+        <v>920</v>
+      </c>
+      <c r="B594" t="s">
+        <v>192</v>
+      </c>
+      <c r="C594">
+        <v>59</v>
+      </c>
+      <c r="D594" t="s">
+        <v>20</v>
+      </c>
+      <c r="E594" t="s">
+        <v>25</v>
+      </c>
+      <c r="F594" t="s">
+        <v>35</v>
+      </c>
+      <c r="G594" t="s">
+        <v>16</v>
+      </c>
+      <c r="H594" t="s">
+        <v>17</v>
+      </c>
+      <c r="I594">
         <v>0</v>
       </c>
-      <c r="M590" t="s">
-        <v>18</v>
-      </c>
-      <c r="N590" t="s">
+      <c r="L594" t="s">
+        <v>39</v>
+      </c>
+      <c r="M594" t="s">
+        <v>18</v>
+      </c>
+      <c r="N594" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A595" s="1">
+        <v>922</v>
+      </c>
+      <c r="B595" t="s">
+        <v>104</v>
+      </c>
+      <c r="C595">
+        <v>21</v>
+      </c>
+      <c r="D595" t="s">
+        <v>14</v>
+      </c>
+      <c r="E595" t="s">
+        <v>21</v>
+      </c>
+      <c r="G595" t="s">
+        <v>16</v>
+      </c>
+      <c r="H595" t="s">
+        <v>17</v>
+      </c>
+      <c r="I595">
+        <v>51</v>
+      </c>
+      <c r="M595" t="s">
+        <v>18</v>
+      </c>
+      <c r="N595" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A596" s="1">
+        <v>923</v>
+      </c>
+      <c r="B596" t="s">
+        <v>111</v>
+      </c>
+      <c r="C596">
+        <v>20</v>
+      </c>
+      <c r="D596" t="s">
+        <v>14</v>
+      </c>
+      <c r="E596" t="s">
+        <v>25</v>
+      </c>
+      <c r="F596" t="s">
+        <v>62</v>
+      </c>
+      <c r="G596" t="s">
+        <v>22</v>
+      </c>
+      <c r="H596" t="s">
+        <v>17</v>
+      </c>
+      <c r="I596">
+        <v>0</v>
+      </c>
+      <c r="M596" t="s">
+        <v>18</v>
+      </c>
+      <c r="N596" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A591" s="1">
-        <v>916</v>
-      </c>
-      <c r="B591" t="s">
-        <v>201</v>
-      </c>
-      <c r="C591">
-        <v>41</v>
-      </c>
-      <c r="D591" t="s">
-        <v>20</v>
-      </c>
-      <c r="E591" t="s">
-        <v>31</v>
-      </c>
-      <c r="G591" t="s">
-        <v>16</v>
-      </c>
-      <c r="H591" t="s">
-        <v>17</v>
-      </c>
-      <c r="K591" t="s">
-        <v>39</v>
-      </c>
-      <c r="L591" t="s">
-        <v>39</v>
-      </c>
-      <c r="M591" t="s">
-        <v>18</v>
-      </c>
-      <c r="N591" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A592" s="1">
-        <v>917</v>
-      </c>
-      <c r="B592" t="s">
-        <v>63</v>
-      </c>
-      <c r="C592">
-        <v>69</v>
-      </c>
-      <c r="D592" t="s">
-        <v>14</v>
-      </c>
-      <c r="E592" t="s">
-        <v>25</v>
-      </c>
-      <c r="F592" t="s">
-        <v>26</v>
-      </c>
-      <c r="G592" t="s">
-        <v>16</v>
-      </c>
-      <c r="H592" t="s">
-        <v>27</v>
-      </c>
-      <c r="I592">
-        <v>0</v>
-      </c>
-      <c r="L592" t="s">
-        <v>31</v>
-      </c>
-      <c r="M592" t="s">
-        <v>18</v>
-      </c>
-      <c r="N592" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A593" s="1">
-        <v>918</v>
-      </c>
-      <c r="B593" t="s">
-        <v>529</v>
-      </c>
-      <c r="C593">
-        <v>25</v>
-      </c>
-      <c r="D593" t="s">
-        <v>20</v>
-      </c>
-      <c r="E593" t="s">
-        <v>78</v>
-      </c>
-      <c r="G593" t="s">
-        <v>16</v>
-      </c>
-      <c r="H593" t="s">
-        <v>17</v>
-      </c>
-      <c r="I593">
-        <v>4</v>
-      </c>
-      <c r="M593" t="s">
-        <v>18</v>
-      </c>
-      <c r="N593" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A594" s="1">
-        <v>919</v>
-      </c>
-      <c r="B594" t="s">
-        <v>376</v>
-      </c>
-      <c r="C594">
-        <v>42</v>
-      </c>
-      <c r="D594" t="s">
-        <v>20</v>
-      </c>
-      <c r="E594" t="s">
-        <v>31</v>
-      </c>
-      <c r="G594" t="s">
-        <v>16</v>
-      </c>
-      <c r="H594" t="s">
-        <v>17</v>
-      </c>
-      <c r="I594">
-        <v>1</v>
-      </c>
-      <c r="M594" t="s">
-        <v>18</v>
-      </c>
-      <c r="N594" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A595" s="1">
-        <v>920</v>
-      </c>
-      <c r="B595" t="s">
-        <v>192</v>
-      </c>
-      <c r="C595">
-        <v>59</v>
-      </c>
-      <c r="D595" t="s">
-        <v>20</v>
-      </c>
-      <c r="E595" t="s">
-        <v>25</v>
-      </c>
-      <c r="F595" t="s">
-        <v>35</v>
-      </c>
-      <c r="G595" t="s">
-        <v>16</v>
-      </c>
-      <c r="H595" t="s">
-        <v>17</v>
-      </c>
-      <c r="I595">
-        <v>0</v>
-      </c>
-      <c r="L595" t="s">
-        <v>39</v>
-      </c>
-      <c r="M595" t="s">
-        <v>18</v>
-      </c>
-      <c r="N595" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A596" s="1">
-        <v>922</v>
-      </c>
-      <c r="B596" t="s">
-        <v>104</v>
-      </c>
-      <c r="C596">
-        <v>21</v>
-      </c>
-      <c r="D596" t="s">
-        <v>14</v>
-      </c>
-      <c r="E596" t="s">
-        <v>21</v>
-      </c>
-      <c r="G596" t="s">
-        <v>16</v>
-      </c>
-      <c r="H596" t="s">
-        <v>17</v>
-      </c>
-      <c r="I596">
-        <v>51</v>
-      </c>
-      <c r="M596" t="s">
-        <v>18</v>
-      </c>
-      <c r="N596" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B597" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C597">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D597" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E597" t="s">
         <v>25</v>
       </c>
       <c r="F597" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G597" t="s">
         <v>22</v>
@@ -24142,34 +24151,34 @@
       <c r="I597">
         <v>0</v>
       </c>
+      <c r="K597" t="s">
+        <v>39</v>
+      </c>
       <c r="M597" t="s">
         <v>18</v>
       </c>
       <c r="N597" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B598" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="C598">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D598" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E598" t="s">
-        <v>25</v>
-      </c>
-      <c r="F598" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G598" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H598" t="s">
         <v>17</v>
@@ -24177,110 +24186,116 @@
       <c r="I598">
         <v>0</v>
       </c>
-      <c r="K598" t="s">
+      <c r="M598" t="s">
+        <v>18</v>
+      </c>
+      <c r="N598" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A599" s="1">
+        <v>928</v>
+      </c>
+      <c r="B599" t="s">
+        <v>589</v>
+      </c>
+      <c r="C599">
+        <v>51</v>
+      </c>
+      <c r="D599" t="s">
+        <v>20</v>
+      </c>
+      <c r="E599" t="s">
+        <v>25</v>
+      </c>
+      <c r="F599" t="s">
+        <v>35</v>
+      </c>
+      <c r="G599" t="s">
+        <v>22</v>
+      </c>
+      <c r="I599">
+        <v>2</v>
+      </c>
+      <c r="L599" t="s">
         <v>39</v>
       </c>
-      <c r="M598" t="s">
-        <v>18</v>
-      </c>
-      <c r="N598" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A599" s="1">
-        <v>925</v>
-      </c>
-      <c r="B599" t="s">
-        <v>218</v>
-      </c>
-      <c r="C599">
-        <v>22</v>
-      </c>
-      <c r="D599" t="s">
-        <v>14</v>
-      </c>
-      <c r="E599" t="s">
-        <v>78</v>
-      </c>
-      <c r="G599" t="s">
-        <v>16</v>
-      </c>
-      <c r="H599" t="s">
-        <v>17</v>
-      </c>
-      <c r="I599">
+      <c r="M599" t="s">
+        <v>18</v>
+      </c>
+      <c r="N599" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A600" s="1">
+        <v>930</v>
+      </c>
+      <c r="B600" t="s">
+        <v>164</v>
+      </c>
+      <c r="C600">
+        <v>69</v>
+      </c>
+      <c r="D600" t="s">
+        <v>20</v>
+      </c>
+      <c r="E600" t="s">
+        <v>25</v>
+      </c>
+      <c r="F600" t="s">
+        <v>35</v>
+      </c>
+      <c r="G600" t="s">
+        <v>22</v>
+      </c>
+      <c r="H600" t="s">
+        <v>17</v>
+      </c>
+      <c r="I600">
+        <v>1</v>
+      </c>
+      <c r="L600" t="s">
+        <v>23</v>
+      </c>
+      <c r="M600" t="s">
+        <v>18</v>
+      </c>
+      <c r="N600" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A601" s="1">
+        <v>931</v>
+      </c>
+      <c r="B601" t="s">
+        <v>341</v>
+      </c>
+      <c r="C601">
+        <v>67</v>
+      </c>
+      <c r="D601" t="s">
+        <v>20</v>
+      </c>
+      <c r="E601" t="s">
+        <v>25</v>
+      </c>
+      <c r="F601" t="s">
+        <v>35</v>
+      </c>
+      <c r="G601" t="s">
+        <v>22</v>
+      </c>
+      <c r="H601" t="s">
+        <v>17</v>
+      </c>
+      <c r="I601">
         <v>0</v>
       </c>
-      <c r="M599" t="s">
-        <v>18</v>
-      </c>
-      <c r="N599" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A600" s="1">
-        <v>928</v>
-      </c>
-      <c r="B600" t="s">
-        <v>589</v>
-      </c>
-      <c r="C600">
-        <v>51</v>
-      </c>
-      <c r="D600" t="s">
-        <v>20</v>
-      </c>
-      <c r="E600" t="s">
-        <v>25</v>
-      </c>
-      <c r="F600" t="s">
-        <v>35</v>
-      </c>
-      <c r="G600" t="s">
-        <v>22</v>
-      </c>
-      <c r="I600">
-        <v>2</v>
-      </c>
-      <c r="L600" t="s">
-        <v>39</v>
-      </c>
-      <c r="M600" t="s">
-        <v>18</v>
-      </c>
-      <c r="N600" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A601" s="1">
-        <v>930</v>
-      </c>
-      <c r="B601" t="s">
-        <v>164</v>
-      </c>
-      <c r="C601">
-        <v>69</v>
-      </c>
-      <c r="D601" t="s">
-        <v>20</v>
-      </c>
-      <c r="E601" t="s">
-        <v>25</v>
-      </c>
-      <c r="F601" t="s">
-        <v>35</v>
-      </c>
-      <c r="G601" t="s">
-        <v>22</v>
-      </c>
-      <c r="H601" t="s">
-        <v>17</v>
-      </c>
-      <c r="I601">
-        <v>1</v>
+      <c r="K601" t="s">
+        <v>23</v>
       </c>
       <c r="L601" t="s">
         <v>23</v>
@@ -24292,24 +24307,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B602" t="s">
-        <v>341</v>
+        <v>97</v>
       </c>
       <c r="C602">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D602" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E602" t="s">
-        <v>25</v>
-      </c>
-      <c r="F602" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G602" t="s">
         <v>22</v>
@@ -24318,10 +24330,7 @@
         <v>17</v>
       </c>
       <c r="I602">
-        <v>0</v>
-      </c>
-      <c r="K602" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="L602" t="s">
         <v>23</v>
@@ -24333,384 +24342,387 @@
         <v>18</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B603" t="s">
+        <v>188</v>
+      </c>
+      <c r="C603">
+        <v>73</v>
+      </c>
+      <c r="D603" t="s">
+        <v>14</v>
+      </c>
+      <c r="E603" t="s">
+        <v>25</v>
+      </c>
+      <c r="F603" t="s">
+        <v>35</v>
+      </c>
+      <c r="G603" t="s">
+        <v>22</v>
+      </c>
+      <c r="H603" t="s">
+        <v>17</v>
+      </c>
+      <c r="I603">
+        <v>0</v>
+      </c>
+      <c r="K603" t="s">
+        <v>39</v>
+      </c>
+      <c r="L603" t="s">
+        <v>39</v>
+      </c>
+      <c r="M603" t="s">
+        <v>18</v>
+      </c>
+      <c r="N603" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="604" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A604" s="1">
+        <v>935</v>
+      </c>
+      <c r="B604" t="s">
+        <v>316</v>
+      </c>
+      <c r="C604">
+        <v>27</v>
+      </c>
+      <c r="D604" t="s">
+        <v>20</v>
+      </c>
+      <c r="E604" t="s">
+        <v>31</v>
+      </c>
+      <c r="G604" t="s">
+        <v>22</v>
+      </c>
+      <c r="H604" t="s">
+        <v>17</v>
+      </c>
+      <c r="L604" t="s">
+        <v>23</v>
+      </c>
+      <c r="M604" t="s">
+        <v>18</v>
+      </c>
+      <c r="N604" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A605" s="1">
+        <v>936</v>
+      </c>
+      <c r="B605" t="s">
+        <v>369</v>
+      </c>
+      <c r="C605">
+        <v>23</v>
+      </c>
+      <c r="D605" t="s">
+        <v>14</v>
+      </c>
+      <c r="E605" t="s">
+        <v>15</v>
+      </c>
+      <c r="G605" t="s">
+        <v>16</v>
+      </c>
+      <c r="M605" t="s">
+        <v>18</v>
+      </c>
+      <c r="N605" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="606" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A606" s="1">
+        <v>938</v>
+      </c>
+      <c r="B606" t="s">
+        <v>622</v>
+      </c>
+      <c r="C606">
+        <v>67</v>
+      </c>
+      <c r="D606" t="s">
+        <v>14</v>
+      </c>
+      <c r="E606" t="s">
+        <v>25</v>
+      </c>
+      <c r="F606" t="s">
+        <v>26</v>
+      </c>
+      <c r="G606" t="s">
+        <v>16</v>
+      </c>
+      <c r="I606">
+        <v>65</v>
+      </c>
+      <c r="L606" t="s">
+        <v>51</v>
+      </c>
+      <c r="M606" t="s">
+        <v>18</v>
+      </c>
+      <c r="N606" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A607" s="1">
+        <v>940</v>
+      </c>
+      <c r="B607" t="s">
+        <v>659</v>
+      </c>
+      <c r="C607">
+        <v>18</v>
+      </c>
+      <c r="D607" t="s">
+        <v>14</v>
+      </c>
+      <c r="E607" t="s">
+        <v>25</v>
+      </c>
+      <c r="F607" t="s">
+        <v>35</v>
+      </c>
+      <c r="G607" t="s">
+        <v>22</v>
+      </c>
+      <c r="H607" t="s">
+        <v>17</v>
+      </c>
+      <c r="I607">
+        <v>1</v>
+      </c>
+      <c r="M607" t="s">
+        <v>18</v>
+      </c>
+      <c r="N607" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A608" s="1">
+        <v>942</v>
+      </c>
+      <c r="B608" t="s">
+        <v>523</v>
+      </c>
+      <c r="C608">
+        <v>76</v>
+      </c>
+      <c r="D608" t="s">
+        <v>14</v>
+      </c>
+      <c r="E608" t="s">
+        <v>25</v>
+      </c>
+      <c r="F608" t="s">
+        <v>35</v>
+      </c>
+      <c r="G608" t="s">
+        <v>22</v>
+      </c>
+      <c r="H608" t="s">
+        <v>17</v>
+      </c>
+      <c r="L608" t="s">
+        <v>23</v>
+      </c>
+      <c r="M608" t="s">
+        <v>18</v>
+      </c>
+      <c r="N608" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A609" s="1">
+        <v>943</v>
+      </c>
+      <c r="B609" t="s">
+        <v>52</v>
+      </c>
+      <c r="C609">
+        <v>37</v>
+      </c>
+      <c r="D609" t="s">
+        <v>14</v>
+      </c>
+      <c r="E609" t="s">
+        <v>25</v>
+      </c>
+      <c r="F609" t="s">
+        <v>26</v>
+      </c>
+      <c r="G609" t="s">
+        <v>22</v>
+      </c>
+      <c r="H609" t="s">
+        <v>27</v>
+      </c>
+      <c r="I609">
+        <v>367</v>
+      </c>
+      <c r="M609" t="s">
+        <v>18</v>
+      </c>
+      <c r="N609" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A610" s="1">
+        <v>944</v>
+      </c>
+      <c r="B610" t="s">
+        <v>258</v>
+      </c>
+      <c r="C610">
+        <v>69</v>
+      </c>
+      <c r="D610" t="s">
+        <v>20</v>
+      </c>
+      <c r="E610" t="s">
+        <v>25</v>
+      </c>
+      <c r="F610" t="s">
+        <v>35</v>
+      </c>
+      <c r="G610" t="s">
+        <v>22</v>
+      </c>
+      <c r="I610">
+        <v>2</v>
+      </c>
+      <c r="K610" t="s">
+        <v>84</v>
+      </c>
+      <c r="L610" t="s">
+        <v>84</v>
+      </c>
+      <c r="M610" t="s">
+        <v>18</v>
+      </c>
+      <c r="N610" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A611" s="1">
+        <v>945</v>
+      </c>
+      <c r="B611" t="s">
+        <v>222</v>
+      </c>
+      <c r="C611">
         <v>97</v>
       </c>
-      <c r="C603">
-        <v>36</v>
-      </c>
-      <c r="D603" t="s">
-        <v>14</v>
-      </c>
-      <c r="E603" t="s">
-        <v>31</v>
-      </c>
-      <c r="G603" t="s">
-        <v>22</v>
-      </c>
-      <c r="H603" t="s">
-        <v>17</v>
-      </c>
-      <c r="I603">
-        <v>168</v>
-      </c>
-      <c r="L603" t="s">
-        <v>23</v>
-      </c>
-      <c r="M603" t="s">
-        <v>18</v>
-      </c>
-      <c r="N603" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A604" s="1">
-        <v>934</v>
-      </c>
-      <c r="B604" t="s">
-        <v>188</v>
-      </c>
-      <c r="C604">
-        <v>73</v>
-      </c>
-      <c r="D604" t="s">
-        <v>14</v>
-      </c>
-      <c r="E604" t="s">
-        <v>25</v>
-      </c>
-      <c r="F604" t="s">
-        <v>35</v>
-      </c>
-      <c r="G604" t="s">
-        <v>22</v>
-      </c>
-      <c r="H604" t="s">
-        <v>17</v>
-      </c>
-      <c r="I604">
+      <c r="D611" t="s">
+        <v>20</v>
+      </c>
+      <c r="E611" t="s">
+        <v>25</v>
+      </c>
+      <c r="F611" t="s">
+        <v>35</v>
+      </c>
+      <c r="G611" t="s">
+        <v>22</v>
+      </c>
+      <c r="H611" t="s">
+        <v>17</v>
+      </c>
+      <c r="I611">
+        <v>1</v>
+      </c>
+      <c r="M611" t="s">
+        <v>18</v>
+      </c>
+      <c r="N611" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A612" s="1">
+        <v>946</v>
+      </c>
+      <c r="B612" t="s">
+        <v>226</v>
+      </c>
+      <c r="C612">
+        <v>21</v>
+      </c>
+      <c r="D612" t="s">
+        <v>20</v>
+      </c>
+      <c r="E612" t="s">
+        <v>25</v>
+      </c>
+      <c r="F612" t="s">
+        <v>35</v>
+      </c>
+      <c r="G612" t="s">
+        <v>16</v>
+      </c>
+      <c r="H612" t="s">
+        <v>17</v>
+      </c>
+      <c r="I612">
         <v>0</v>
       </c>
-      <c r="K604" t="s">
+      <c r="L612" t="s">
+        <v>31</v>
+      </c>
+      <c r="M612" t="s">
+        <v>18</v>
+      </c>
+      <c r="N612" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A613" s="1">
+        <v>948</v>
+      </c>
+      <c r="B613" t="s">
+        <v>420</v>
+      </c>
+      <c r="C613">
+        <v>80</v>
+      </c>
+      <c r="D613" t="s">
+        <v>14</v>
+      </c>
+      <c r="E613" t="s">
+        <v>25</v>
+      </c>
+      <c r="F613" t="s">
+        <v>35</v>
+      </c>
+      <c r="G613" t="s">
+        <v>22</v>
+      </c>
+      <c r="H613" t="s">
+        <v>17</v>
+      </c>
+      <c r="I613">
+        <v>1</v>
+      </c>
+      <c r="K613" t="s">
         <v>39</v>
       </c>
-      <c r="L604" t="s">
-        <v>39</v>
-      </c>
-      <c r="M604" t="s">
-        <v>18</v>
-      </c>
-      <c r="N604" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A605" s="1">
-        <v>935</v>
-      </c>
-      <c r="B605" t="s">
-        <v>316</v>
-      </c>
-      <c r="C605">
-        <v>27</v>
-      </c>
-      <c r="D605" t="s">
-        <v>20</v>
-      </c>
-      <c r="E605" t="s">
-        <v>31</v>
-      </c>
-      <c r="G605" t="s">
-        <v>22</v>
-      </c>
-      <c r="H605" t="s">
-        <v>17</v>
-      </c>
-      <c r="L605" t="s">
-        <v>23</v>
-      </c>
-      <c r="M605" t="s">
-        <v>18</v>
-      </c>
-      <c r="N605" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A606" s="1">
-        <v>936</v>
-      </c>
-      <c r="B606" t="s">
-        <v>369</v>
-      </c>
-      <c r="C606">
-        <v>23</v>
-      </c>
-      <c r="D606" t="s">
-        <v>14</v>
-      </c>
-      <c r="E606" t="s">
-        <v>15</v>
-      </c>
-      <c r="G606" t="s">
-        <v>16</v>
-      </c>
-      <c r="M606" t="s">
-        <v>18</v>
-      </c>
-      <c r="N606" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A607" s="1">
-        <v>938</v>
-      </c>
-      <c r="B607" t="s">
-        <v>623</v>
-      </c>
-      <c r="C607">
-        <v>67</v>
-      </c>
-      <c r="D607" t="s">
-        <v>14</v>
-      </c>
-      <c r="E607" t="s">
-        <v>25</v>
-      </c>
-      <c r="F607" t="s">
-        <v>26</v>
-      </c>
-      <c r="G607" t="s">
-        <v>16</v>
-      </c>
-      <c r="I607">
-        <v>65</v>
-      </c>
-      <c r="L607" t="s">
-        <v>51</v>
-      </c>
-      <c r="M607" t="s">
-        <v>18</v>
-      </c>
-      <c r="N607" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A608" s="1">
-        <v>940</v>
-      </c>
-      <c r="B608" t="s">
-        <v>660</v>
-      </c>
-      <c r="C608">
-        <v>18</v>
-      </c>
-      <c r="D608" t="s">
-        <v>14</v>
-      </c>
-      <c r="E608" t="s">
-        <v>25</v>
-      </c>
-      <c r="F608" t="s">
-        <v>35</v>
-      </c>
-      <c r="G608" t="s">
-        <v>22</v>
-      </c>
-      <c r="H608" t="s">
-        <v>17</v>
-      </c>
-      <c r="I608">
-        <v>1</v>
-      </c>
-      <c r="M608" t="s">
-        <v>18</v>
-      </c>
-      <c r="N608" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A609" s="1">
-        <v>942</v>
-      </c>
-      <c r="B609" t="s">
-        <v>523</v>
-      </c>
-      <c r="C609">
-        <v>76</v>
-      </c>
-      <c r="D609" t="s">
-        <v>14</v>
-      </c>
-      <c r="E609" t="s">
-        <v>25</v>
-      </c>
-      <c r="F609" t="s">
-        <v>35</v>
-      </c>
-      <c r="G609" t="s">
-        <v>22</v>
-      </c>
-      <c r="H609" t="s">
-        <v>17</v>
-      </c>
-      <c r="L609" t="s">
-        <v>23</v>
-      </c>
-      <c r="M609" t="s">
-        <v>18</v>
-      </c>
-      <c r="N609" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A610" s="1">
-        <v>943</v>
-      </c>
-      <c r="B610" t="s">
-        <v>52</v>
-      </c>
-      <c r="C610">
-        <v>37</v>
-      </c>
-      <c r="D610" t="s">
-        <v>14</v>
-      </c>
-      <c r="E610" t="s">
-        <v>25</v>
-      </c>
-      <c r="F610" t="s">
-        <v>26</v>
-      </c>
-      <c r="G610" t="s">
-        <v>22</v>
-      </c>
-      <c r="H610" t="s">
-        <v>27</v>
-      </c>
-      <c r="I610">
-        <v>367</v>
-      </c>
-      <c r="M610" t="s">
-        <v>18</v>
-      </c>
-      <c r="N610" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A611" s="1">
-        <v>944</v>
-      </c>
-      <c r="B611" t="s">
-        <v>258</v>
-      </c>
-      <c r="C611">
-        <v>69</v>
-      </c>
-      <c r="D611" t="s">
-        <v>20</v>
-      </c>
-      <c r="E611" t="s">
-        <v>25</v>
-      </c>
-      <c r="F611" t="s">
-        <v>35</v>
-      </c>
-      <c r="G611" t="s">
-        <v>22</v>
-      </c>
-      <c r="I611">
-        <v>2</v>
-      </c>
-      <c r="K611" t="s">
-        <v>84</v>
-      </c>
-      <c r="L611" t="s">
-        <v>84</v>
-      </c>
-      <c r="M611" t="s">
-        <v>18</v>
-      </c>
-      <c r="N611" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A612" s="1">
-        <v>945</v>
-      </c>
-      <c r="B612" t="s">
-        <v>222</v>
-      </c>
-      <c r="C612">
-        <v>97</v>
-      </c>
-      <c r="D612" t="s">
-        <v>20</v>
-      </c>
-      <c r="E612" t="s">
-        <v>25</v>
-      </c>
-      <c r="F612" t="s">
-        <v>35</v>
-      </c>
-      <c r="G612" t="s">
-        <v>22</v>
-      </c>
-      <c r="H612" t="s">
-        <v>17</v>
-      </c>
-      <c r="I612">
-        <v>1</v>
-      </c>
-      <c r="M612" t="s">
-        <v>18</v>
-      </c>
-      <c r="N612" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A613" s="1">
-        <v>946</v>
-      </c>
-      <c r="B613" t="s">
-        <v>226</v>
-      </c>
-      <c r="C613">
-        <v>21</v>
-      </c>
-      <c r="D613" t="s">
-        <v>20</v>
-      </c>
-      <c r="E613" t="s">
-        <v>25</v>
-      </c>
-      <c r="F613" t="s">
-        <v>35</v>
-      </c>
-      <c r="G613" t="s">
-        <v>16</v>
-      </c>
-      <c r="H613" t="s">
-        <v>17</v>
-      </c>
-      <c r="I613">
-        <v>0</v>
-      </c>
-      <c r="L613" t="s">
-        <v>31</v>
-      </c>
       <c r="M613" t="s">
         <v>18</v>
       </c>
@@ -24718,27 +24730,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B614" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C614">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D614" t="s">
         <v>14</v>
       </c>
       <c r="E614" t="s">
-        <v>25</v>
-      </c>
-      <c r="F614" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G614" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H614" t="s">
         <v>17</v>
@@ -24746,201 +24755,201 @@
       <c r="I614">
         <v>1</v>
       </c>
-      <c r="K614" t="s">
+      <c r="M614" t="s">
+        <v>18</v>
+      </c>
+      <c r="N614" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A615" s="1">
+        <v>952</v>
+      </c>
+      <c r="B615" t="s">
+        <v>306</v>
+      </c>
+      <c r="C615">
+        <v>20</v>
+      </c>
+      <c r="D615" t="s">
+        <v>20</v>
+      </c>
+      <c r="E615" t="s">
+        <v>21</v>
+      </c>
+      <c r="G615" t="s">
+        <v>22</v>
+      </c>
+      <c r="H615" t="s">
+        <v>17</v>
+      </c>
+      <c r="M615" t="s">
+        <v>18</v>
+      </c>
+      <c r="N615" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="616" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A616" s="1">
+        <v>953</v>
+      </c>
+      <c r="B616" t="s">
+        <v>628</v>
+      </c>
+      <c r="C616">
+        <v>84</v>
+      </c>
+      <c r="D616" t="s">
+        <v>14</v>
+      </c>
+      <c r="E616" t="s">
+        <v>30</v>
+      </c>
+      <c r="G616" t="s">
+        <v>16</v>
+      </c>
+      <c r="H616" t="s">
+        <v>17</v>
+      </c>
+      <c r="I616">
+        <v>907</v>
+      </c>
+      <c r="M616" t="s">
+        <v>18</v>
+      </c>
+      <c r="N616" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A617" s="1">
+        <v>955</v>
+      </c>
+      <c r="B617" t="s">
+        <v>264</v>
+      </c>
+      <c r="C617">
+        <v>28</v>
+      </c>
+      <c r="D617" t="s">
+        <v>20</v>
+      </c>
+      <c r="E617" t="s">
+        <v>15</v>
+      </c>
+      <c r="G617" t="s">
+        <v>16</v>
+      </c>
+      <c r="H617" t="s">
+        <v>17</v>
+      </c>
+      <c r="I617">
+        <v>0</v>
+      </c>
+      <c r="M617" t="s">
+        <v>18</v>
+      </c>
+      <c r="N617" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="618" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A618" s="1">
+        <v>957</v>
+      </c>
+      <c r="B618" t="s">
+        <v>364</v>
+      </c>
+      <c r="C618">
+        <v>43</v>
+      </c>
+      <c r="D618" t="s">
+        <v>14</v>
+      </c>
+      <c r="E618" t="s">
+        <v>25</v>
+      </c>
+      <c r="F618" t="s">
+        <v>26</v>
+      </c>
+      <c r="G618" t="s">
+        <v>16</v>
+      </c>
+      <c r="H618" t="s">
+        <v>17</v>
+      </c>
+      <c r="I618">
+        <v>1</v>
+      </c>
+      <c r="K618" t="s">
         <v>39</v>
       </c>
-      <c r="M614" t="s">
-        <v>18</v>
-      </c>
-      <c r="N614" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A615" s="1">
-        <v>949</v>
-      </c>
-      <c r="B615" t="s">
-        <v>385</v>
-      </c>
-      <c r="C615">
-        <v>59</v>
-      </c>
-      <c r="D615" t="s">
-        <v>14</v>
-      </c>
-      <c r="E615" t="s">
-        <v>30</v>
-      </c>
-      <c r="G615" t="s">
-        <v>16</v>
-      </c>
-      <c r="H615" t="s">
-        <v>17</v>
-      </c>
-      <c r="I615">
-        <v>1</v>
-      </c>
-      <c r="M615" t="s">
-        <v>18</v>
-      </c>
-      <c r="N615" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A616" s="1">
-        <v>952</v>
-      </c>
-      <c r="B616" t="s">
-        <v>306</v>
-      </c>
-      <c r="C616">
-        <v>20</v>
-      </c>
-      <c r="D616" t="s">
-        <v>20</v>
-      </c>
-      <c r="E616" t="s">
+      <c r="L618" t="s">
+        <v>349</v>
+      </c>
+      <c r="M618" t="s">
+        <v>18</v>
+      </c>
+      <c r="N618" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="619" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A619" s="1">
+        <v>958</v>
+      </c>
+      <c r="B619" t="s">
+        <v>555</v>
+      </c>
+      <c r="C619">
+        <v>50</v>
+      </c>
+      <c r="D619" t="s">
+        <v>14</v>
+      </c>
+      <c r="E619" t="s">
         <v>21</v>
       </c>
-      <c r="G616" t="s">
-        <v>22</v>
-      </c>
-      <c r="H616" t="s">
-        <v>17</v>
-      </c>
-      <c r="M616" t="s">
-        <v>18</v>
-      </c>
-      <c r="N616" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A617" s="1">
-        <v>953</v>
-      </c>
-      <c r="B617" t="s">
-        <v>629</v>
-      </c>
-      <c r="C617">
-        <v>84</v>
-      </c>
-      <c r="D617" t="s">
-        <v>14</v>
-      </c>
-      <c r="E617" t="s">
-        <v>30</v>
-      </c>
-      <c r="G617" t="s">
-        <v>16</v>
-      </c>
-      <c r="H617" t="s">
-        <v>17</v>
-      </c>
-      <c r="I617">
-        <v>907</v>
-      </c>
-      <c r="M617" t="s">
-        <v>18</v>
-      </c>
-      <c r="N617" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A618" s="1">
-        <v>955</v>
-      </c>
-      <c r="B618" t="s">
-        <v>264</v>
-      </c>
-      <c r="C618">
-        <v>28</v>
-      </c>
-      <c r="D618" t="s">
-        <v>20</v>
-      </c>
-      <c r="E618" t="s">
-        <v>15</v>
-      </c>
-      <c r="G618" t="s">
-        <v>16</v>
-      </c>
-      <c r="H618" t="s">
-        <v>17</v>
-      </c>
-      <c r="I618">
+      <c r="H619" t="s">
+        <v>17</v>
+      </c>
+      <c r="M619" t="s">
+        <v>18</v>
+      </c>
+      <c r="N619" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="620" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A620" s="1">
+        <v>960</v>
+      </c>
+      <c r="B620" t="s">
+        <v>485</v>
+      </c>
+      <c r="C620">
+        <v>65</v>
+      </c>
+      <c r="D620" t="s">
+        <v>14</v>
+      </c>
+      <c r="E620" t="s">
+        <v>25</v>
+      </c>
+      <c r="F620" t="s">
+        <v>26</v>
+      </c>
+      <c r="G620" t="s">
+        <v>16</v>
+      </c>
+      <c r="H620" t="s">
+        <v>17</v>
+      </c>
+      <c r="I620">
         <v>0</v>
       </c>
-      <c r="M618" t="s">
-        <v>18</v>
-      </c>
-      <c r="N618" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A619" s="1">
-        <v>957</v>
-      </c>
-      <c r="B619" t="s">
-        <v>364</v>
-      </c>
-      <c r="C619">
-        <v>43</v>
-      </c>
-      <c r="D619" t="s">
-        <v>14</v>
-      </c>
-      <c r="E619" t="s">
-        <v>25</v>
-      </c>
-      <c r="F619" t="s">
-        <v>26</v>
-      </c>
-      <c r="G619" t="s">
-        <v>16</v>
-      </c>
-      <c r="H619" t="s">
-        <v>17</v>
-      </c>
-      <c r="I619">
-        <v>1</v>
-      </c>
-      <c r="K619" t="s">
-        <v>39</v>
-      </c>
-      <c r="L619" t="s">
-        <v>349</v>
-      </c>
-      <c r="M619" t="s">
-        <v>18</v>
-      </c>
-      <c r="N619" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A620" s="1">
-        <v>958</v>
-      </c>
-      <c r="B620" t="s">
-        <v>555</v>
-      </c>
-      <c r="C620">
-        <v>50</v>
-      </c>
-      <c r="D620" t="s">
-        <v>14</v>
-      </c>
-      <c r="E620" t="s">
-        <v>21</v>
-      </c>
-      <c r="H620" t="s">
-        <v>17</v>
-      </c>
       <c r="M620" t="s">
         <v>18</v>
       </c>
@@ -24948,15 +24957,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B621" t="s">
-        <v>485</v>
+        <v>599</v>
       </c>
       <c r="C621">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D621" t="s">
         <v>14</v>
@@ -24965,10 +24974,10 @@
         <v>25</v>
       </c>
       <c r="F621" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G621" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H621" t="s">
         <v>17</v>
@@ -24976,6 +24985,12 @@
       <c r="I621">
         <v>0</v>
       </c>
+      <c r="K621" t="s">
+        <v>84</v>
+      </c>
+      <c r="L621" t="s">
+        <v>84</v>
+      </c>
       <c r="M621" t="s">
         <v>18</v>
       </c>
@@ -24983,24 +24998,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B622" t="s">
-        <v>599</v>
+        <v>465</v>
       </c>
       <c r="C622">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D622" t="s">
         <v>14</v>
       </c>
       <c r="E622" t="s">
-        <v>25</v>
-      </c>
-      <c r="F622" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G622" t="s">
         <v>22</v>
@@ -25009,284 +25021,287 @@
         <v>17</v>
       </c>
       <c r="I622">
+        <v>26</v>
+      </c>
+      <c r="L622" t="s">
+        <v>39</v>
+      </c>
+      <c r="M622" t="s">
+        <v>18</v>
+      </c>
+      <c r="N622" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A623" s="1">
+        <v>965</v>
+      </c>
+      <c r="B623" t="s">
+        <v>211</v>
+      </c>
+      <c r="C623">
+        <v>27</v>
+      </c>
+      <c r="D623" t="s">
+        <v>14</v>
+      </c>
+      <c r="E623" t="s">
+        <v>15</v>
+      </c>
+      <c r="G623" t="s">
+        <v>16</v>
+      </c>
+      <c r="H623" t="s">
+        <v>17</v>
+      </c>
+      <c r="I623">
+        <v>8</v>
+      </c>
+      <c r="M623" t="s">
+        <v>18</v>
+      </c>
+      <c r="N623" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="624" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A624" s="1">
+        <v>966</v>
+      </c>
+      <c r="B624" t="s">
+        <v>56</v>
+      </c>
+      <c r="C624">
+        <v>24</v>
+      </c>
+      <c r="D624" t="s">
+        <v>20</v>
+      </c>
+      <c r="E624" t="s">
+        <v>30</v>
+      </c>
+      <c r="G624" t="s">
+        <v>16</v>
+      </c>
+      <c r="H624" t="s">
+        <v>17</v>
+      </c>
+      <c r="I624">
+        <v>1</v>
+      </c>
+      <c r="L624" t="s">
+        <v>57</v>
+      </c>
+      <c r="M624" t="s">
+        <v>18</v>
+      </c>
+      <c r="N624" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A625" s="1">
+        <v>969</v>
+      </c>
+      <c r="B625" t="s">
+        <v>60</v>
+      </c>
+      <c r="C625">
+        <v>62</v>
+      </c>
+      <c r="D625" t="s">
+        <v>20</v>
+      </c>
+      <c r="E625" t="s">
+        <v>25</v>
+      </c>
+      <c r="F625" t="s">
+        <v>35</v>
+      </c>
+      <c r="G625" t="s">
+        <v>22</v>
+      </c>
+      <c r="H625" t="s">
+        <v>17</v>
+      </c>
+      <c r="I625">
+        <v>3</v>
+      </c>
+      <c r="K625" t="s">
+        <v>23</v>
+      </c>
+      <c r="L625" t="s">
+        <v>23</v>
+      </c>
+      <c r="M625" t="s">
+        <v>31</v>
+      </c>
+      <c r="N625" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="626" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A626" s="1">
+        <v>971</v>
+      </c>
+      <c r="B626" t="s">
+        <v>296</v>
+      </c>
+      <c r="C626">
+        <v>31</v>
+      </c>
+      <c r="D626" t="s">
+        <v>14</v>
+      </c>
+      <c r="E626" t="s">
+        <v>25</v>
+      </c>
+      <c r="F626" t="s">
+        <v>26</v>
+      </c>
+      <c r="G626" t="s">
+        <v>16</v>
+      </c>
+      <c r="H626" t="s">
+        <v>17</v>
+      </c>
+      <c r="I626">
+        <v>197</v>
+      </c>
+      <c r="L626" t="s">
+        <v>31</v>
+      </c>
+      <c r="M626" t="s">
+        <v>18</v>
+      </c>
+      <c r="N626" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="627" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A627" s="1">
+        <v>972</v>
+      </c>
+      <c r="B627" t="s">
+        <v>92</v>
+      </c>
+      <c r="C627">
+        <v>16</v>
+      </c>
+      <c r="D627" t="s">
+        <v>14</v>
+      </c>
+      <c r="E627" t="s">
+        <v>25</v>
+      </c>
+      <c r="F627" t="s">
+        <v>35</v>
+      </c>
+      <c r="G627" t="s">
+        <v>22</v>
+      </c>
+      <c r="H627" t="s">
+        <v>17</v>
+      </c>
+      <c r="I627">
+        <v>57</v>
+      </c>
+      <c r="M627" t="s">
+        <v>18</v>
+      </c>
+      <c r="N627" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="628" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A628" s="1">
+        <v>973</v>
+      </c>
+      <c r="B628" t="s">
+        <v>497</v>
+      </c>
+      <c r="C628">
+        <v>75</v>
+      </c>
+      <c r="D628" t="s">
+        <v>14</v>
+      </c>
+      <c r="E628" t="s">
+        <v>25</v>
+      </c>
+      <c r="F628" t="s">
+        <v>35</v>
+      </c>
+      <c r="G628" t="s">
+        <v>16</v>
+      </c>
+      <c r="H628" t="s">
+        <v>27</v>
+      </c>
+      <c r="I628">
         <v>0</v>
       </c>
-      <c r="K622" t="s">
-        <v>84</v>
-      </c>
-      <c r="L622" t="s">
-        <v>84</v>
-      </c>
-      <c r="M622" t="s">
-        <v>18</v>
-      </c>
-      <c r="N622" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A623" s="1">
-        <v>963</v>
-      </c>
-      <c r="B623" t="s">
-        <v>465</v>
-      </c>
-      <c r="C623">
-        <v>67</v>
-      </c>
-      <c r="D623" t="s">
-        <v>14</v>
-      </c>
-      <c r="E623" t="s">
-        <v>31</v>
-      </c>
-      <c r="G623" t="s">
-        <v>22</v>
-      </c>
-      <c r="H623" t="s">
-        <v>17</v>
-      </c>
-      <c r="I623">
-        <v>26</v>
-      </c>
-      <c r="L623" t="s">
+      <c r="L628" t="s">
         <v>39</v>
       </c>
-      <c r="M623" t="s">
-        <v>18</v>
-      </c>
-      <c r="N623" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A624" s="1">
-        <v>965</v>
-      </c>
-      <c r="B624" t="s">
-        <v>211</v>
-      </c>
-      <c r="C624">
-        <v>27</v>
-      </c>
-      <c r="D624" t="s">
-        <v>14</v>
-      </c>
-      <c r="E624" t="s">
-        <v>15</v>
-      </c>
-      <c r="G624" t="s">
-        <v>16</v>
-      </c>
-      <c r="H624" t="s">
-        <v>17</v>
-      </c>
-      <c r="I624">
-        <v>8</v>
-      </c>
-      <c r="M624" t="s">
-        <v>18</v>
-      </c>
-      <c r="N624" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A625" s="1">
-        <v>966</v>
-      </c>
-      <c r="B625" t="s">
-        <v>56</v>
-      </c>
-      <c r="C625">
-        <v>24</v>
-      </c>
-      <c r="D625" t="s">
-        <v>20</v>
-      </c>
-      <c r="E625" t="s">
-        <v>30</v>
-      </c>
-      <c r="G625" t="s">
-        <v>16</v>
-      </c>
-      <c r="H625" t="s">
-        <v>17</v>
-      </c>
-      <c r="I625">
+      <c r="M628" t="s">
+        <v>18</v>
+      </c>
+      <c r="N628" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="629" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A629" s="1">
+        <v>974</v>
+      </c>
+      <c r="B629" t="s">
+        <v>285</v>
+      </c>
+      <c r="C629">
+        <v>53</v>
+      </c>
+      <c r="D629" t="s">
+        <v>14</v>
+      </c>
+      <c r="E629" t="s">
+        <v>25</v>
+      </c>
+      <c r="F629" t="s">
+        <v>35</v>
+      </c>
+      <c r="G629" t="s">
+        <v>16</v>
+      </c>
+      <c r="H629" t="s">
+        <v>17</v>
+      </c>
+      <c r="I629">
         <v>1</v>
       </c>
-      <c r="L625" t="s">
-        <v>57</v>
-      </c>
-      <c r="M625" t="s">
-        <v>18</v>
-      </c>
-      <c r="N625" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A626" s="1">
-        <v>969</v>
-      </c>
-      <c r="B626" t="s">
-        <v>60</v>
-      </c>
-      <c r="C626">
-        <v>62</v>
-      </c>
-      <c r="D626" t="s">
-        <v>20</v>
-      </c>
-      <c r="E626" t="s">
-        <v>25</v>
-      </c>
-      <c r="F626" t="s">
-        <v>35</v>
-      </c>
-      <c r="G626" t="s">
-        <v>22</v>
-      </c>
-      <c r="H626" t="s">
-        <v>17</v>
-      </c>
-      <c r="I626">
-        <v>3</v>
-      </c>
-      <c r="K626" t="s">
-        <v>23</v>
-      </c>
-      <c r="L626" t="s">
-        <v>23</v>
-      </c>
-      <c r="M626" t="s">
-        <v>31</v>
-      </c>
-      <c r="N626" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A627" s="1">
-        <v>971</v>
-      </c>
-      <c r="B627" t="s">
-        <v>296</v>
-      </c>
-      <c r="C627">
-        <v>31</v>
-      </c>
-      <c r="D627" t="s">
-        <v>14</v>
-      </c>
-      <c r="E627" t="s">
-        <v>25</v>
-      </c>
-      <c r="F627" t="s">
-        <v>26</v>
-      </c>
-      <c r="G627" t="s">
-        <v>16</v>
-      </c>
-      <c r="H627" t="s">
-        <v>17</v>
-      </c>
-      <c r="I627">
-        <v>197</v>
-      </c>
-      <c r="L627" t="s">
-        <v>31</v>
-      </c>
-      <c r="M627" t="s">
-        <v>18</v>
-      </c>
-      <c r="N627" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A628" s="1">
-        <v>972</v>
-      </c>
-      <c r="B628" t="s">
-        <v>92</v>
-      </c>
-      <c r="C628">
-        <v>16</v>
-      </c>
-      <c r="D628" t="s">
-        <v>14</v>
-      </c>
-      <c r="E628" t="s">
-        <v>25</v>
-      </c>
-      <c r="F628" t="s">
-        <v>35</v>
-      </c>
-      <c r="G628" t="s">
-        <v>22</v>
-      </c>
-      <c r="H628" t="s">
-        <v>17</v>
-      </c>
-      <c r="I628">
-        <v>57</v>
-      </c>
-      <c r="M628" t="s">
-        <v>18</v>
-      </c>
-      <c r="N628" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A629" s="1">
-        <v>973</v>
-      </c>
-      <c r="B629" t="s">
-        <v>497</v>
-      </c>
-      <c r="C629">
-        <v>75</v>
-      </c>
-      <c r="D629" t="s">
-        <v>14</v>
-      </c>
-      <c r="E629" t="s">
-        <v>25</v>
-      </c>
-      <c r="F629" t="s">
-        <v>35</v>
-      </c>
-      <c r="G629" t="s">
-        <v>16</v>
-      </c>
-      <c r="H629" t="s">
-        <v>27</v>
-      </c>
-      <c r="I629">
-        <v>0</v>
+      <c r="K629" t="s">
+        <v>39</v>
       </c>
       <c r="L629" t="s">
         <v>39</v>
       </c>
       <c r="M629" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="N629" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B630" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="C630">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D630" t="s">
         <v>14</v>
@@ -25295,39 +25310,33 @@
         <v>25</v>
       </c>
       <c r="F630" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G630" t="s">
         <v>16</v>
       </c>
       <c r="H630" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I630">
         <v>1</v>
       </c>
-      <c r="K630" t="s">
-        <v>39</v>
-      </c>
-      <c r="L630" t="s">
-        <v>39</v>
-      </c>
       <c r="M630" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="N630" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B631" t="s">
-        <v>245</v>
+        <v>418</v>
       </c>
       <c r="C631">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D631" t="s">
         <v>14</v>
@@ -25336,7 +25345,7 @@
         <v>25</v>
       </c>
       <c r="F631" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G631" t="s">
         <v>16</v>
@@ -25345,7 +25354,10 @@
         <v>27</v>
       </c>
       <c r="I631">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L631" t="s">
+        <v>51</v>
       </c>
       <c r="M631" t="s">
         <v>18</v>
@@ -25354,15 +25366,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B632" t="s">
-        <v>418</v>
+        <v>61</v>
       </c>
       <c r="C632">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D632" t="s">
         <v>14</v>
@@ -25371,20 +25383,17 @@
         <v>25</v>
       </c>
       <c r="F632" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G632" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H632" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I632">
         <v>0</v>
       </c>
-      <c r="L632" t="s">
-        <v>51</v>
-      </c>
       <c r="M632" t="s">
         <v>18</v>
       </c>
@@ -25392,115 +25401,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B633" t="s">
-        <v>61</v>
+        <v>558</v>
       </c>
       <c r="C633">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D633" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E633" t="s">
         <v>25</v>
       </c>
       <c r="F633" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G633" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="H633" t="s">
         <v>17</v>
       </c>
-      <c r="I633">
+      <c r="K633" t="s">
+        <v>84</v>
+      </c>
+      <c r="M633" t="s">
+        <v>18</v>
+      </c>
+      <c r="N633" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="634" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A634" s="1">
+        <v>982</v>
+      </c>
+      <c r="B634" t="s">
+        <v>513</v>
+      </c>
+      <c r="C634">
+        <v>45</v>
+      </c>
+      <c r="D634" t="s">
+        <v>20</v>
+      </c>
+      <c r="E634" t="s">
+        <v>25</v>
+      </c>
+      <c r="F634" t="s">
+        <v>35</v>
+      </c>
+      <c r="G634" t="s">
+        <v>22</v>
+      </c>
+      <c r="H634" t="s">
+        <v>17</v>
+      </c>
+      <c r="I634">
         <v>0</v>
       </c>
-      <c r="M633" t="s">
-        <v>18</v>
-      </c>
-      <c r="N633" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A634" s="1">
-        <v>979</v>
-      </c>
-      <c r="B634" t="s">
-        <v>558</v>
-      </c>
-      <c r="C634">
-        <v>84</v>
-      </c>
-      <c r="D634" t="s">
-        <v>20</v>
-      </c>
-      <c r="E634" t="s">
-        <v>25</v>
-      </c>
-      <c r="F634" t="s">
-        <v>35</v>
-      </c>
-      <c r="G634" t="s">
-        <v>86</v>
-      </c>
-      <c r="H634" t="s">
-        <v>17</v>
-      </c>
-      <c r="K634" t="s">
-        <v>84</v>
-      </c>
       <c r="M634" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N634" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A635" s="1">
-        <v>982</v>
-      </c>
-      <c r="B635" t="s">
-        <v>513</v>
-      </c>
-      <c r="C635">
-        <v>45</v>
-      </c>
-      <c r="D635" t="s">
-        <v>20</v>
-      </c>
-      <c r="E635" t="s">
-        <v>25</v>
-      </c>
-      <c r="F635" t="s">
-        <v>35</v>
-      </c>
-      <c r="G635" t="s">
-        <v>22</v>
-      </c>
-      <c r="H635" t="s">
-        <v>17</v>
-      </c>
-      <c r="I635">
-        <v>0</v>
-      </c>
-      <c r="M635" t="s">
-        <v>31</v>
-      </c>
-      <c r="N635" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N635">
-    <sortCondition ref="A1:A635"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N634">
+    <sortCondition ref="A1:A634"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Metadata_train.xlsx
+++ b/Metadata_train.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Matos\Documents\Educação\U.GENT\First Seizure Project\ugent-FirstSeizure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA8E983-7A1B-4E97-BFDD-C05A5C2C1454}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F48EC-0CDB-4B37-991A-619CEF168049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3190,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="E520" sqref="E520"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
